--- a/nextjs/data/software-2304.xlsx
+++ b/nextjs/data/software-2304.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\74402\repo\sanyedu\moai\nextjs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xin\repo\sanyedu\moai\nextjs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9563B0DB-0CDC-4AE9-81A3-7A127F429CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8DED0-C4AD-4699-883A-87263B5C677E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>姓名</t>
   </si>
@@ -344,19 +344,6 @@
   </si>
   <si>
     <t>230208110426</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘念</t>
-    </r>
-  </si>
-  <si>
-    <t>230208110427</t>
   </si>
   <si>
     <r>
@@ -856,18 +843,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -883,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -891,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -899,7 +886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -907,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -915,7 +902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -923,7 +910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -931,7 +918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -939,7 +926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -947,7 +934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -955,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -963,7 +950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -971,7 +958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -979,7 +966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -987,7 +974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -995,7 +982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1003,7 +990,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1011,7 +998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -1019,7 +1006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1027,7 +1014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1035,7 +1022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -1043,7 +1030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -1051,7 +1038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1059,7 +1046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -1067,7 +1054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -1075,7 +1062,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -1083,7 +1070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -1091,7 +1078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -1099,23 +1086,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
@@ -1123,7 +1110,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
@@ -1131,7 +1118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
@@ -1139,7 +1126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>68</v>
       </c>
@@ -1147,20 +1134,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A37" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1155,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1190,7 +1169,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
